--- a/Analyses/part_I/3. scan publications/get list of adjectives/clean list of adjectives/listAdjectives_articles.xlsx
+++ b/Analyses/part_I/3. scan publications/get list of adjectives/clean list of adjectives/listAdjectives_articles.xlsx
@@ -12,92 +12,350 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="580">
-  <si>
-    <t>x</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="578">
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>276</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>21</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>23</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>28</t>
   </si>
   <si>
@@ -119,12 +377,6 @@
     <t>34</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
     <t>37</t>
   </si>
   <si>
@@ -167,33 +419,18 @@
     <t>50</t>
   </si>
   <si>
-    <t>51</t>
-  </si>
-  <si>
     <t>52</t>
   </si>
   <si>
     <t>53</t>
   </si>
   <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
     <t>56</t>
   </si>
   <si>
     <t>57</t>
   </si>
   <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
     <t>60</t>
   </si>
   <si>
@@ -203,24 +440,12 @@
     <t>62</t>
   </si>
   <si>
-    <t>63</t>
-  </si>
-  <si>
     <t>64</t>
   </si>
   <si>
-    <t>65</t>
-  </si>
-  <si>
     <t>66</t>
   </si>
   <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
     <t>69</t>
   </si>
   <si>
@@ -230,9 +455,6 @@
     <t>71</t>
   </si>
   <si>
-    <t>72</t>
-  </si>
-  <si>
     <t>73</t>
   </si>
   <si>
@@ -242,60 +464,33 @@
     <t>75</t>
   </si>
   <si>
-    <t>76</t>
-  </si>
-  <si>
     <t>77</t>
   </si>
   <si>
     <t>78</t>
   </si>
   <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
     <t>81</t>
   </si>
   <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
     <t>84</t>
   </si>
   <si>
     <t>85</t>
   </si>
   <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
     <t>88</t>
   </si>
   <si>
     <t>89</t>
   </si>
   <si>
-    <t>90</t>
-  </si>
-  <si>
     <t>91</t>
   </si>
   <si>
     <t>92</t>
   </si>
   <si>
-    <t>93</t>
-  </si>
-  <si>
     <t>94</t>
   </si>
   <si>
@@ -305,27 +500,12 @@
     <t>96</t>
   </si>
   <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
     <t>99</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>101</t>
   </si>
   <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
     <t>104</t>
   </si>
   <si>
@@ -335,21 +515,12 @@
     <t>106</t>
   </si>
   <si>
-    <t>107</t>
-  </si>
-  <si>
     <t>108</t>
   </si>
   <si>
-    <t>109</t>
-  </si>
-  <si>
     <t>110</t>
   </si>
   <si>
-    <t>111</t>
-  </si>
-  <si>
     <t>112</t>
   </si>
   <si>
@@ -374,9 +545,6 @@
     <t>119</t>
   </si>
   <si>
-    <t>120</t>
-  </si>
-  <si>
     <t>121</t>
   </si>
   <si>
@@ -389,30 +557,15 @@
     <t>124</t>
   </si>
   <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
     <t>127</t>
   </si>
   <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
     <t>130</t>
   </si>
   <si>
     <t>131</t>
   </si>
   <si>
-    <t>132</t>
-  </si>
-  <si>
     <t>133</t>
   </si>
   <si>
@@ -422,18 +575,9 @@
     <t>135</t>
   </si>
   <si>
-    <t>136</t>
-  </si>
-  <si>
     <t>137</t>
   </si>
   <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
     <t>140</t>
   </si>
   <si>
@@ -443,24 +587,15 @@
     <t>142</t>
   </si>
   <si>
-    <t>143</t>
-  </si>
-  <si>
     <t>144</t>
   </si>
   <si>
     <t>145</t>
   </si>
   <si>
-    <t>146</t>
-  </si>
-  <si>
     <t>147</t>
   </si>
   <si>
-    <t>148</t>
-  </si>
-  <si>
     <t>149</t>
   </si>
   <si>
@@ -491,57 +626,24 @@
     <t>158</t>
   </si>
   <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
     <t>162</t>
   </si>
   <si>
-    <t>163</t>
-  </si>
-  <si>
     <t>164</t>
   </si>
   <si>
-    <t>165</t>
-  </si>
-  <si>
     <t>166</t>
   </si>
   <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
     <t>170</t>
   </si>
   <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
     <t>173</t>
   </si>
   <si>
     <t>174</t>
   </si>
   <si>
-    <t>175</t>
-  </si>
-  <si>
     <t>176</t>
   </si>
   <si>
@@ -569,12 +671,6 @@
     <t>184</t>
   </si>
   <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>186</t>
-  </si>
-  <si>
     <t>187</t>
   </si>
   <si>
@@ -584,36 +680,21 @@
     <t>189</t>
   </si>
   <si>
-    <t>190</t>
-  </si>
-  <si>
     <t>191</t>
   </si>
   <si>
     <t>192</t>
   </si>
   <si>
-    <t>193</t>
-  </si>
-  <si>
     <t>194</t>
   </si>
   <si>
     <t>195</t>
   </si>
   <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
     <t>198</t>
   </si>
   <si>
-    <t>199</t>
-  </si>
-  <si>
     <t>200</t>
   </si>
   <si>
@@ -632,15 +713,9 @@
     <t>205</t>
   </si>
   <si>
-    <t>206</t>
-  </si>
-  <si>
     <t>207</t>
   </si>
   <si>
-    <t>208</t>
-  </si>
-  <si>
     <t>209</t>
   </si>
   <si>
@@ -650,18 +725,12 @@
     <t>211</t>
   </si>
   <si>
-    <t>212</t>
-  </si>
-  <si>
     <t>213</t>
   </si>
   <si>
     <t>214</t>
   </si>
   <si>
-    <t>215</t>
-  </si>
-  <si>
     <t>216</t>
   </si>
   <si>
@@ -671,24 +740,15 @@
     <t>218</t>
   </si>
   <si>
-    <t>219</t>
-  </si>
-  <si>
     <t>220</t>
   </si>
   <si>
     <t>221</t>
   </si>
   <si>
-    <t>222</t>
-  </si>
-  <si>
     <t>223</t>
   </si>
   <si>
-    <t>224</t>
-  </si>
-  <si>
     <t>225</t>
   </si>
   <si>
@@ -701,12 +761,6 @@
     <t>228</t>
   </si>
   <si>
-    <t>229</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
     <t>231</t>
   </si>
   <si>
@@ -716,15 +770,9 @@
     <t>233</t>
   </si>
   <si>
-    <t>234</t>
-  </si>
-  <si>
     <t>235</t>
   </si>
   <si>
-    <t>236</t>
-  </si>
-  <si>
     <t>237</t>
   </si>
   <si>
@@ -734,27 +782,15 @@
     <t>239</t>
   </si>
   <si>
-    <t>240</t>
-  </si>
-  <si>
     <t>241</t>
   </si>
   <si>
     <t>242</t>
   </si>
   <si>
-    <t>243</t>
-  </si>
-  <si>
-    <t>244</t>
-  </si>
-  <si>
     <t>245</t>
   </si>
   <si>
-    <t>246</t>
-  </si>
-  <si>
     <t>247</t>
   </si>
   <si>
@@ -764,9 +800,6 @@
     <t>249</t>
   </si>
   <si>
-    <t>250</t>
-  </si>
-  <si>
     <t>251</t>
   </si>
   <si>
@@ -776,30 +809,12 @@
     <t>253</t>
   </si>
   <si>
-    <t>254</t>
-  </si>
-  <si>
     <t>255</t>
   </si>
   <si>
-    <t>256</t>
-  </si>
-  <si>
     <t>257</t>
   </si>
   <si>
-    <t>258</t>
-  </si>
-  <si>
-    <t>259</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>261</t>
-  </si>
-  <si>
     <t>262</t>
   </si>
   <si>
@@ -809,9 +824,6 @@
     <t>264</t>
   </si>
   <si>
-    <t>265</t>
-  </si>
-  <si>
     <t>266</t>
   </si>
   <si>
@@ -842,9 +854,6 @@
     <t>275</t>
   </si>
   <si>
-    <t>276</t>
-  </si>
-  <si>
     <t>277</t>
   </si>
   <si>
@@ -869,105 +878,348 @@
     <t>284</t>
   </si>
   <si>
-    <t>285</t>
-  </si>
-  <si>
     <t>286</t>
   </si>
   <si>
     <t>287</t>
   </si>
   <si>
-    <t>288</t>
-  </si>
-  <si>
-    <t>289</t>
-  </si>
-  <si>
-    <t>290</t>
+    <t>soft</t>
+  </si>
+  <si>
+    <t>biomimetic</t>
+  </si>
+  <si>
+    <t>technical</t>
+  </si>
+  <si>
+    <t>biological</t>
+  </si>
+  <si>
+    <t>functional</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>pneumatic</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>novel</t>
+  </si>
+  <si>
+    <t>such</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>artificial</t>
+  </si>
+  <si>
+    <t>autonomous</t>
+  </si>
+  <si>
+    <t>peristaltic</t>
+  </si>
+  <si>
+    <t>recent</t>
+  </si>
+  <si>
+    <t>different</t>
+  </si>
+  <si>
+    <t>elastic</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>multi</t>
+  </si>
+  <si>
+    <t>robotic</t>
+  </si>
+  <si>
+    <t>various</t>
+  </si>
+  <si>
+    <t>botanical</t>
+  </si>
+  <si>
+    <t>complex</t>
+  </si>
+  <si>
+    <t>flexible</t>
+  </si>
+  <si>
+    <t>hygroscopic</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>structural</t>
+  </si>
+  <si>
+    <t>carnivorous</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>individual</t>
+  </si>
+  <si>
+    <t>mechanical</t>
+  </si>
+  <si>
+    <t>suitable</t>
+  </si>
+  <si>
+    <t>adaptive</t>
+  </si>
+  <si>
+    <t>additive</t>
+  </si>
+  <si>
+    <t>basic</t>
+  </si>
+  <si>
+    <t>bioinspired</t>
+  </si>
+  <si>
+    <t>compliant</t>
+  </si>
+  <si>
+    <t>digital</t>
+  </si>
+  <si>
+    <t>faster</t>
+  </si>
+  <si>
+    <t>future</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>higher</t>
+  </si>
+  <si>
+    <t>large</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>most</t>
+  </si>
+  <si>
+    <t>physical</t>
+  </si>
+  <si>
+    <t>rapid</t>
+  </si>
+  <si>
+    <t>smooth</t>
+  </si>
+  <si>
+    <t>tubular</t>
   </si>
   <si>
     <t>able</t>
   </si>
   <si>
+    <t>analytical</t>
+  </si>
+  <si>
+    <t>asymmetric</t>
+  </si>
+  <si>
+    <t>capable</t>
+  </si>
+  <si>
+    <t>cellular</t>
+  </si>
+  <si>
+    <t>central</t>
+  </si>
+  <si>
+    <t>dense</t>
+  </si>
+  <si>
+    <t>dimensional</t>
+  </si>
+  <si>
+    <t>early</t>
+  </si>
+  <si>
+    <t>educational</t>
+  </si>
+  <si>
+    <t>electronic</t>
+  </si>
+  <si>
+    <t>environmental</t>
+  </si>
+  <si>
+    <t>external</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>hollow</t>
+  </si>
+  <si>
+    <t>hygromorphic</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>improved</t>
+  </si>
+  <si>
+    <t>interdisciplinary</t>
+  </si>
+  <si>
+    <t>kinematic</t>
+  </si>
+  <si>
+    <t>layered</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>manual</t>
+  </si>
+  <si>
+    <t>morphological</t>
+  </si>
+  <si>
+    <t>multilayer</t>
+  </si>
+  <si>
+    <t>multiple</t>
+  </si>
+  <si>
+    <t>natural</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>newtonian</t>
+  </si>
+  <si>
+    <t>peculiar</t>
+  </si>
+  <si>
+    <t>polymeric</t>
+  </si>
+  <si>
+    <t>possible</t>
+  </si>
+  <si>
+    <t>precise</t>
+  </si>
+  <si>
+    <t>programmed</t>
+  </si>
+  <si>
+    <t>promising</t>
+  </si>
+  <si>
+    <t>restrictive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>sequential</t>
+  </si>
+  <si>
+    <t>several</t>
+  </si>
+  <si>
+    <t>silent</t>
+  </si>
+  <si>
+    <t>slow</t>
+  </si>
+  <si>
+    <t>snap</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>successful</t>
+  </si>
+  <si>
+    <t>sufficient</t>
+  </si>
+  <si>
+    <t>suited</t>
+  </si>
+  <si>
+    <t>wide</t>
+  </si>
+  <si>
     <t>abrupt</t>
   </si>
   <si>
     <t>absolute</t>
   </si>
   <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>adaptive</t>
-  </si>
-  <si>
-    <t>additive</t>
-  </si>
-  <si>
     <t>advanced</t>
   </si>
   <si>
     <t>american</t>
   </si>
   <si>
-    <t>analytical</t>
-  </si>
-  <si>
     <t>anisotropic</t>
   </si>
   <si>
-    <t>artificial</t>
-  </si>
-  <si>
-    <t>asymmetric</t>
-  </si>
-  <si>
-    <t>autonomous</t>
-  </si>
-  <si>
-    <t>basic</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
     <t>bio</t>
   </si>
   <si>
-    <t>bioinspired</t>
-  </si>
-  <si>
-    <t>biological</t>
-  </si>
-  <si>
     <t>biomechanical</t>
   </si>
   <si>
-    <t>biomimetic</t>
-  </si>
-  <si>
     <t>bodied</t>
   </si>
   <si>
-    <t>botanical</t>
-  </si>
-  <si>
     <t>brittle</t>
   </si>
   <si>
-    <t>capable</t>
-  </si>
-  <si>
-    <t>carnivorous</t>
-  </si>
-  <si>
-    <t>cellular</t>
-  </si>
-  <si>
-    <t>central</t>
-  </si>
-  <si>
     <t>centripetal</t>
   </si>
   <si>
@@ -989,12 +1241,6 @@
     <t>complete</t>
   </si>
   <si>
-    <t>complex</t>
-  </si>
-  <si>
-    <t>compliant</t>
-  </si>
-  <si>
     <t>complicated</t>
   </si>
   <si>
@@ -1037,33 +1283,18 @@
     <t>crucial</t>
   </si>
   <si>
-    <t>current</t>
-  </si>
-  <si>
     <t>customdeveloped</t>
   </si>
   <si>
     <t>deeper</t>
   </si>
   <si>
-    <t>dense</t>
-  </si>
-  <si>
-    <t>different</t>
-  </si>
-  <si>
     <t>differential</t>
   </si>
   <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>digital</t>
-  </si>
-  <si>
-    <t>dimensional</t>
-  </si>
-  <si>
     <t>direct</t>
   </si>
   <si>
@@ -1073,27 +1304,12 @@
     <t>double</t>
   </si>
   <si>
-    <t>early</t>
-  </si>
-  <si>
     <t>economic</t>
   </si>
   <si>
-    <t>educational</t>
-  </si>
-  <si>
     <t>efficient</t>
   </si>
   <si>
-    <t>elastic</t>
-  </si>
-  <si>
-    <t>electric</t>
-  </si>
-  <si>
-    <t>electronic</t>
-  </si>
-  <si>
     <t>elliptical</t>
   </si>
   <si>
@@ -1103,9 +1319,6 @@
     <t>entire</t>
   </si>
   <si>
-    <t>environmental</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
@@ -1115,60 +1328,33 @@
     <t>exocarp</t>
   </si>
   <si>
-    <t>external</t>
-  </si>
-  <si>
     <t>extraordinary</t>
   </si>
   <si>
     <t>fascinating</t>
   </si>
   <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>faster</t>
-  </si>
-  <si>
     <t>few</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>flexible</t>
-  </si>
-  <si>
     <t>fluid</t>
   </si>
   <si>
     <t>fossil</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>functional</t>
-  </si>
-  <si>
     <t>fundamental</t>
   </si>
   <si>
     <t>further</t>
   </si>
   <si>
-    <t>future</t>
-  </si>
-  <si>
     <t>general</t>
   </si>
   <si>
     <t>giant</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>greater</t>
   </si>
   <si>
@@ -1178,27 +1364,12 @@
     <t>herbal</t>
   </si>
   <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>higher</t>
-  </si>
-  <si>
     <t>highest</t>
   </si>
   <si>
-    <t>hollow</t>
-  </si>
-  <si>
     <t>huge</t>
   </si>
   <si>
-    <t>hygromorphic</t>
-  </si>
-  <si>
-    <t>hygroscopic</t>
-  </si>
-  <si>
     <t>ideal</t>
   </si>
   <si>
@@ -1208,21 +1379,12 @@
     <t>implementable</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>impossible</t>
   </si>
   <si>
-    <t>improved</t>
-  </si>
-  <si>
     <t>inclined</t>
   </si>
   <si>
-    <t>individual</t>
-  </si>
-  <si>
     <t>inelastic</t>
   </si>
   <si>
@@ -1247,9 +1409,6 @@
     <t>intensive</t>
   </si>
   <si>
-    <t>interdisciplinary</t>
-  </si>
-  <si>
     <t>interested</t>
   </si>
   <si>
@@ -1262,30 +1421,15 @@
     <t>intrinsic</t>
   </si>
   <si>
-    <t>kinematic</t>
-  </si>
-  <si>
-    <t>large</t>
-  </si>
-  <si>
     <t>lateral</t>
   </si>
   <si>
-    <t>layered</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
     <t>lifelong</t>
   </si>
   <si>
     <t>light</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>lily</t>
   </si>
   <si>
@@ -1295,18 +1439,9 @@
     <t>little</t>
   </si>
   <si>
-    <t>local</t>
-  </si>
-  <si>
     <t>longitudinal</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
     <t>macroscopic</t>
   </si>
   <si>
@@ -1316,24 +1451,15 @@
     <t>major</t>
   </si>
   <si>
-    <t>manual</t>
-  </si>
-  <si>
     <t>many</t>
   </si>
   <si>
     <t>marked</t>
   </si>
   <si>
-    <t>material</t>
-  </si>
-  <si>
     <t>mathematical</t>
   </si>
   <si>
-    <t>mechanical</t>
-  </si>
-  <si>
     <t>medical</t>
   </si>
   <si>
@@ -1364,57 +1490,24 @@
     <t>mono</t>
   </si>
   <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>morphological</t>
-  </si>
-  <si>
-    <t>most</t>
-  </si>
-  <si>
     <t>motile</t>
   </si>
   <si>
-    <t>multi</t>
-  </si>
-  <si>
     <t>multifunctional</t>
   </si>
   <si>
-    <t>multilayer</t>
-  </si>
-  <si>
     <t>multimaterial</t>
   </si>
   <si>
-    <t>multiple</t>
-  </si>
-  <si>
-    <t>natural</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
     <t>net</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>newtonian</t>
-  </si>
-  <si>
     <t>non</t>
   </si>
   <si>
     <t>normal</t>
   </si>
   <si>
-    <t>novel</t>
-  </si>
-  <si>
     <t>numerous</t>
   </si>
   <si>
@@ -1442,12 +1535,6 @@
     <t>past</t>
   </si>
   <si>
-    <t>peculiar</t>
-  </si>
-  <si>
-    <t>peristaltic</t>
-  </si>
-  <si>
     <t>permeant</t>
   </si>
   <si>
@@ -1457,36 +1544,21 @@
     <t>phase</t>
   </si>
   <si>
-    <t>physical</t>
-  </si>
-  <si>
     <t>planar</t>
   </si>
   <si>
     <t>plantinspired</t>
   </si>
   <si>
-    <t>pneumatic</t>
-  </si>
-  <si>
     <t>poisonous</t>
   </si>
   <si>
     <t>polylactic</t>
   </si>
   <si>
-    <t>polymeric</t>
-  </si>
-  <si>
-    <t>possible</t>
-  </si>
-  <si>
     <t>practicable</t>
   </si>
   <si>
-    <t>precise</t>
-  </si>
-  <si>
     <t>present</t>
   </si>
   <si>
@@ -1505,15 +1577,9 @@
     <t>professional</t>
   </si>
   <si>
-    <t>programmed</t>
-  </si>
-  <si>
     <t>progressive</t>
   </si>
   <si>
-    <t>promising</t>
-  </si>
-  <si>
     <t>public</t>
   </si>
   <si>
@@ -1523,18 +1589,12 @@
     <t>quiet</t>
   </si>
   <si>
-    <t>rapid</t>
-  </si>
-  <si>
     <t>ready</t>
   </si>
   <si>
     <t>real</t>
   </si>
   <si>
-    <t>recent</t>
-  </si>
-  <si>
     <t>recyclable</t>
   </si>
   <si>
@@ -1544,24 +1604,15 @@
     <t>respective</t>
   </si>
   <si>
-    <t>restrictive</t>
-  </si>
-  <si>
     <t>reverse</t>
   </si>
   <si>
     <t>rigid</t>
   </si>
   <si>
-    <t>robotic</t>
-  </si>
-  <si>
     <t>sacred</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>scientific</t>
   </si>
   <si>
@@ -1574,12 +1625,6 @@
     <t>sensitive</t>
   </si>
   <si>
-    <t>sequential</t>
-  </si>
-  <si>
-    <t>several</t>
-  </si>
-  <si>
     <t>shapememory</t>
   </si>
   <si>
@@ -1589,15 +1634,9 @@
     <t>significant</t>
   </si>
   <si>
-    <t>silent</t>
-  </si>
-  <si>
     <t>similar</t>
   </si>
   <si>
-    <t>simple</t>
-  </si>
-  <si>
     <t>simplified</t>
   </si>
   <si>
@@ -1607,27 +1646,15 @@
     <t>sized</t>
   </si>
   <si>
-    <t>slow</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
     <t>smart</t>
   </si>
   <si>
-    <t>smooth</t>
-  </si>
-  <si>
-    <t>snap</t>
-  </si>
-  <si>
     <t>social</t>
   </si>
   <si>
-    <t>soft</t>
-  </si>
-  <si>
     <t>solid</t>
   </si>
   <si>
@@ -1637,9 +1664,6 @@
     <t>south</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>specific</t>
   </si>
   <si>
@@ -1649,30 +1673,12 @@
     <t>straightforward</t>
   </si>
   <si>
-    <t>structural</t>
-  </si>
-  <si>
     <t>subsequent</t>
   </si>
   <si>
-    <t>successful</t>
-  </si>
-  <si>
     <t>succulent</t>
   </si>
   <si>
-    <t>such</t>
-  </si>
-  <si>
-    <t>sufficient</t>
-  </si>
-  <si>
-    <t>suitable</t>
-  </si>
-  <si>
-    <t>suited</t>
-  </si>
-  <si>
     <t>sustainable</t>
   </si>
   <si>
@@ -1682,9 +1688,6 @@
     <t>tailored</t>
   </si>
   <si>
-    <t>technical</t>
-  </si>
-  <si>
     <t>technological</t>
   </si>
   <si>
@@ -1715,9 +1718,6 @@
     <t>transdisciplinary</t>
   </si>
   <si>
-    <t>tubular</t>
-  </si>
-  <si>
     <t>undamaged</t>
   </si>
   <si>
@@ -1742,16 +1742,10 @@
     <t>variable</t>
   </si>
   <si>
-    <t>various</t>
-  </si>
-  <si>
     <t>versatile</t>
   </si>
   <si>
     <t>whole</t>
-  </si>
-  <si>
-    <t>wide</t>
   </si>
 </sst>
 </file>
@@ -1807,2325 +1801,3176 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>291</v>
+        <v>290</v>
+      </c>
+      <c r="C2" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>292</v>
+        <v>291</v>
+      </c>
+      <c r="C3" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>293</v>
+        <v>292</v>
+      </c>
+      <c r="C4" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>294</v>
+        <v>293</v>
+      </c>
+      <c r="C5" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>295</v>
+        <v>294</v>
+      </c>
+      <c r="C6" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>296</v>
+        <v>295</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>297</v>
+        <v>296</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>298</v>
+        <v>297</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>299</v>
+        <v>298</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>300</v>
+        <v>299</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>301</v>
+        <v>300</v>
+      </c>
+      <c r="C12" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>302</v>
+        <v>301</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>303</v>
+        <v>302</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>304</v>
+        <v>303</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>305</v>
+        <v>304</v>
+      </c>
+      <c r="C16" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>306</v>
+        <v>305</v>
+      </c>
+      <c r="C17" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>307</v>
+        <v>306</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>308</v>
+        <v>307</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>309</v>
+        <v>308</v>
+      </c>
+      <c r="C20" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>310</v>
+        <v>309</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>311</v>
+        <v>310</v>
+      </c>
+      <c r="C22" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>312</v>
+        <v>311</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>313</v>
+        <v>312</v>
+      </c>
+      <c r="C24" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>314</v>
+        <v>313</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>315</v>
+        <v>314</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>316</v>
+        <v>315</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>317</v>
+        <v>316</v>
+      </c>
+      <c r="C28" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>318</v>
+        <v>317</v>
+      </c>
+      <c r="C29" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>319</v>
+        <v>318</v>
+      </c>
+      <c r="C30" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>320</v>
+        <v>319</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>321</v>
+        <v>320</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>322</v>
+        <v>321</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>323</v>
+        <v>322</v>
+      </c>
+      <c r="C34" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>324</v>
+        <v>323</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>325</v>
+        <v>324</v>
+      </c>
+      <c r="C36" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>326</v>
+        <v>325</v>
+      </c>
+      <c r="C37" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>327</v>
+        <v>326</v>
+      </c>
+      <c r="C38" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>328</v>
+        <v>327</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>329</v>
+        <v>328</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>330</v>
+        <v>329</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>331</v>
+        <v>330</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>332</v>
+        <v>331</v>
+      </c>
+      <c r="C43" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>333</v>
+        <v>332</v>
+      </c>
+      <c r="C44" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>334</v>
+        <v>333</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>335</v>
+        <v>334</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>336</v>
+        <v>335</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>337</v>
+        <v>336</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>338</v>
+        <v>337</v>
+      </c>
+      <c r="C49" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>339</v>
+        <v>338</v>
+      </c>
+      <c r="C50" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>340</v>
+        <v>339</v>
+      </c>
+      <c r="C51" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>341</v>
+        <v>340</v>
+      </c>
+      <c r="C52" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>342</v>
+        <v>341</v>
+      </c>
+      <c r="C53" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>343</v>
+        <v>342</v>
+      </c>
+      <c r="C54" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>344</v>
+        <v>343</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>345</v>
+        <v>344</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
         <v>345</v>
       </c>
+      <c r="C57" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
         <v>346</v>
       </c>
+      <c r="C58" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
         <v>347</v>
       </c>
+      <c r="C59" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
         <v>348</v>
       </c>
+      <c r="C60" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
         <v>349</v>
       </c>
+      <c r="C61" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
         <v>350</v>
       </c>
+      <c r="C62" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
         <v>351</v>
       </c>
+      <c r="C63" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
         <v>352</v>
       </c>
+      <c r="C64" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
         <v>353</v>
       </c>
+      <c r="C65" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
         <v>354</v>
       </c>
+      <c r="C66" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
         <v>355</v>
       </c>
+      <c r="C67" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
         <v>356</v>
       </c>
+      <c r="C68" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" t="s">
         <v>357</v>
       </c>
+      <c r="C69" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" t="s">
         <v>358</v>
       </c>
+      <c r="C70" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71" t="s">
         <v>359</v>
       </c>
+      <c r="C71" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72" t="s">
         <v>360</v>
       </c>
+      <c r="C72" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
         <v>361</v>
       </c>
+      <c r="C73" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
         <v>362</v>
       </c>
+      <c r="C74" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
         <v>363</v>
       </c>
+      <c r="C75" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
         <v>364</v>
       </c>
+      <c r="C76" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
         <v>365</v>
       </c>
+      <c r="C77" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
         <v>366</v>
       </c>
+      <c r="C78" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
         <v>367</v>
       </c>
+      <c r="C79" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80" t="s">
         <v>368</v>
       </c>
+      <c r="C80" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s">
         <v>369</v>
       </c>
+      <c r="C81" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
         <v>370</v>
       </c>
+      <c r="C82" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
         <v>371</v>
       </c>
+      <c r="C83" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
         <v>372</v>
       </c>
+      <c r="C84" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
         <v>373</v>
       </c>
+      <c r="C85" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86" t="s">
         <v>374</v>
       </c>
+      <c r="C86" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
         <v>375</v>
       </c>
+      <c r="C87" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88" t="s">
         <v>376</v>
       </c>
+      <c r="C88" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89" t="s">
         <v>377</v>
       </c>
+      <c r="C89" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90" t="s">
         <v>378</v>
       </c>
+      <c r="C90" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91" t="s">
         <v>379</v>
       </c>
+      <c r="C91" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92" t="s">
         <v>380</v>
       </c>
+      <c r="C92" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93" t="s">
         <v>381</v>
       </c>
+      <c r="C93" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94" t="s">
         <v>382</v>
       </c>
+      <c r="C94" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95" t="s">
         <v>383</v>
       </c>
+      <c r="C95" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96" t="s">
         <v>384</v>
       </c>
+      <c r="C96" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97" t="s">
         <v>385</v>
       </c>
+      <c r="C97" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98" t="s">
         <v>386</v>
       </c>
+      <c r="C98" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99" t="s">
         <v>387</v>
       </c>
+      <c r="C99" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B100" t="s">
         <v>388</v>
       </c>
+      <c r="C100" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101" t="s">
         <v>389</v>
       </c>
+      <c r="C101" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B102" t="s">
         <v>390</v>
       </c>
+      <c r="C102" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B103" t="s">
         <v>391</v>
       </c>
+      <c r="C103" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B104" t="s">
         <v>392</v>
       </c>
+      <c r="C104" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B105" t="s">
         <v>393</v>
       </c>
+      <c r="C105" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B106" t="s">
         <v>394</v>
       </c>
+      <c r="C106" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B107" t="s">
         <v>395</v>
       </c>
+      <c r="C107" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B108" t="s">
         <v>396</v>
       </c>
+      <c r="C108" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B109" t="s">
         <v>397</v>
       </c>
+      <c r="C109" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B110" t="s">
         <v>398</v>
       </c>
+      <c r="C110" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B111" t="s">
         <v>399</v>
       </c>
+      <c r="C111" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B112" t="s">
         <v>400</v>
       </c>
+      <c r="C112" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B113" t="s">
         <v>401</v>
       </c>
+      <c r="C113" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B114" t="s">
         <v>402</v>
       </c>
+      <c r="C114" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B115" t="s">
         <v>403</v>
       </c>
+      <c r="C115" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B116" t="s">
         <v>404</v>
       </c>
+      <c r="C116" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B117" t="s">
         <v>405</v>
       </c>
+      <c r="C117" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B118" t="s">
         <v>406</v>
       </c>
+      <c r="C118" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B119" t="s">
         <v>407</v>
       </c>
+      <c r="C119" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B120" t="s">
         <v>408</v>
       </c>
+      <c r="C120" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B121" t="s">
         <v>409</v>
       </c>
+      <c r="C121" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B122" t="s">
         <v>410</v>
       </c>
+      <c r="C122" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B123" t="s">
         <v>411</v>
       </c>
+      <c r="C123" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B124" t="s">
         <v>412</v>
       </c>
+      <c r="C124" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B125" t="s">
         <v>413</v>
       </c>
+      <c r="C125" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B126" t="s">
         <v>414</v>
       </c>
+      <c r="C126" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B127" t="s">
         <v>415</v>
       </c>
+      <c r="C127" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B128" t="s">
         <v>416</v>
       </c>
+      <c r="C128" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B129" t="s">
         <v>417</v>
       </c>
+      <c r="C129" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B130" t="s">
         <v>418</v>
       </c>
+      <c r="C130" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B131" t="s">
         <v>419</v>
       </c>
+      <c r="C131" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B132" t="s">
         <v>420</v>
       </c>
+      <c r="C132" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B133" t="s">
         <v>421</v>
       </c>
+      <c r="C133" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B134" t="s">
         <v>422</v>
       </c>
+      <c r="C134" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B135" t="s">
         <v>423</v>
       </c>
+      <c r="C135" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B136" t="s">
         <v>424</v>
       </c>
+      <c r="C136" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B137" t="s">
         <v>425</v>
       </c>
+      <c r="C137" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B138" t="s">
         <v>426</v>
       </c>
+      <c r="C138" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B139" t="s">
         <v>427</v>
       </c>
+      <c r="C139" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B140" t="s">
         <v>428</v>
       </c>
+      <c r="C140" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B141" t="s">
         <v>429</v>
       </c>
+      <c r="C141" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B142" t="s">
         <v>430</v>
       </c>
+      <c r="C142" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B143" t="s">
         <v>431</v>
       </c>
+      <c r="C143" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B144" t="s">
         <v>432</v>
       </c>
+      <c r="C144" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B145" t="s">
         <v>433</v>
       </c>
+      <c r="C145" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B146" t="s">
         <v>434</v>
       </c>
+      <c r="C146" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B147" t="s">
         <v>435</v>
       </c>
+      <c r="C147" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B148" t="s">
         <v>436</v>
       </c>
+      <c r="C148" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B149" t="s">
         <v>437</v>
       </c>
+      <c r="C149" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B150" t="s">
         <v>438</v>
       </c>
+      <c r="C150" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B151" t="s">
         <v>439</v>
       </c>
+      <c r="C151" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B152" t="s">
         <v>440</v>
       </c>
+      <c r="C152" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B153" t="s">
         <v>441</v>
       </c>
+      <c r="C153" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B154" t="s">
         <v>442</v>
       </c>
+      <c r="C154" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B155" t="s">
         <v>443</v>
       </c>
+      <c r="C155" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B156" t="s">
         <v>444</v>
       </c>
+      <c r="C156" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B157" t="s">
         <v>445</v>
       </c>
+      <c r="C157" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B158" t="s">
         <v>446</v>
       </c>
+      <c r="C158" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B159" t="s">
         <v>447</v>
       </c>
+      <c r="C159" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B160" t="s">
         <v>448</v>
       </c>
+      <c r="C160" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B161" t="s">
         <v>449</v>
       </c>
+      <c r="C161" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B162" t="s">
         <v>450</v>
       </c>
+      <c r="C162" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B163" t="s">
         <v>451</v>
       </c>
+      <c r="C163" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B164" t="s">
         <v>452</v>
       </c>
+      <c r="C164" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B165" t="s">
         <v>453</v>
       </c>
+      <c r="C165" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B166" t="s">
         <v>454</v>
       </c>
+      <c r="C166" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B167" t="s">
         <v>455</v>
       </c>
+      <c r="C167" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B168" t="s">
         <v>456</v>
       </c>
+      <c r="C168" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B169" t="s">
         <v>457</v>
       </c>
+      <c r="C169" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B170" t="s">
         <v>458</v>
       </c>
+      <c r="C170" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B171" t="s">
         <v>459</v>
       </c>
+      <c r="C171" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B172" t="s">
         <v>460</v>
       </c>
+      <c r="C172" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B173" t="s">
         <v>461</v>
       </c>
+      <c r="C173" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B174" t="s">
         <v>462</v>
       </c>
+      <c r="C174" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B175" t="s">
         <v>463</v>
       </c>
+      <c r="C175" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B176" t="s">
         <v>464</v>
       </c>
+      <c r="C176" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B177" t="s">
         <v>465</v>
       </c>
+      <c r="C177" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B178" t="s">
         <v>466</v>
       </c>
+      <c r="C178" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B179" t="s">
         <v>467</v>
       </c>
+      <c r="C179" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B180" t="s">
         <v>468</v>
       </c>
+      <c r="C180" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B181" t="s">
         <v>469</v>
       </c>
+      <c r="C181" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B182" t="s">
         <v>470</v>
       </c>
+      <c r="C182" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B183" t="s">
         <v>471</v>
       </c>
+      <c r="C183" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B184" t="s">
         <v>472</v>
       </c>
+      <c r="C184" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B185" t="s">
         <v>473</v>
       </c>
+      <c r="C185" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B186" t="s">
         <v>474</v>
       </c>
+      <c r="C186" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B187" t="s">
         <v>475</v>
       </c>
+      <c r="C187" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B188" t="s">
         <v>476</v>
       </c>
+      <c r="C188" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B189" t="s">
         <v>477</v>
       </c>
+      <c r="C189" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B190" t="s">
         <v>478</v>
       </c>
+      <c r="C190" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B191" t="s">
         <v>479</v>
       </c>
+      <c r="C191" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B192" t="s">
         <v>480</v>
       </c>
+      <c r="C192" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B193" t="s">
         <v>481</v>
       </c>
+      <c r="C193" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B194" t="s">
         <v>482</v>
       </c>
+      <c r="C194" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B195" t="s">
         <v>483</v>
       </c>
+      <c r="C195" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B196" t="s">
         <v>484</v>
       </c>
+      <c r="C196" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B197" t="s">
         <v>485</v>
       </c>
+      <c r="C197" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B198" t="s">
         <v>486</v>
       </c>
+      <c r="C198" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B199" t="s">
         <v>487</v>
       </c>
+      <c r="C199" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B200" t="s">
         <v>488</v>
       </c>
+      <c r="C200" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B201" t="s">
         <v>489</v>
       </c>
+      <c r="C201" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B202" t="s">
         <v>490</v>
       </c>
+      <c r="C202" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B203" t="s">
         <v>491</v>
       </c>
+      <c r="C203" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B204" t="s">
         <v>492</v>
       </c>
+      <c r="C204" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B205" t="s">
         <v>493</v>
       </c>
+      <c r="C205" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B206" t="s">
         <v>494</v>
       </c>
+      <c r="C206" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B207" t="s">
         <v>495</v>
       </c>
+      <c r="C207" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B208" t="s">
         <v>496</v>
       </c>
+      <c r="C208" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B209" t="s">
         <v>497</v>
       </c>
+      <c r="C209" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B210" t="s">
         <v>498</v>
       </c>
+      <c r="C210" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B211" t="s">
         <v>499</v>
       </c>
+      <c r="C211" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B212" t="s">
         <v>500</v>
       </c>
+      <c r="C212" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B213" t="s">
         <v>501</v>
       </c>
+      <c r="C213" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B214" t="s">
         <v>502</v>
       </c>
+      <c r="C214" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B215" t="s">
         <v>503</v>
       </c>
+      <c r="C215" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B216" t="s">
         <v>504</v>
       </c>
+      <c r="C216" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B217" t="s">
         <v>505</v>
       </c>
+      <c r="C217" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B218" t="s">
         <v>506</v>
       </c>
+      <c r="C218" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B219" t="s">
         <v>507</v>
       </c>
+      <c r="C219" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B220" t="s">
         <v>508</v>
       </c>
+      <c r="C220" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B221" t="s">
         <v>509</v>
       </c>
+      <c r="C221" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B222" t="s">
         <v>510</v>
       </c>
+      <c r="C222" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B223" t="s">
         <v>511</v>
       </c>
+      <c r="C223" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B224" t="s">
         <v>512</v>
       </c>
+      <c r="C224" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B225" t="s">
         <v>513</v>
       </c>
+      <c r="C225" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B226" t="s">
         <v>514</v>
       </c>
+      <c r="C226" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B227" t="s">
         <v>515</v>
       </c>
+      <c r="C227" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B228" t="s">
         <v>516</v>
       </c>
+      <c r="C228" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B229" t="s">
         <v>517</v>
       </c>
+      <c r="C229" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B230" t="s">
         <v>518</v>
       </c>
+      <c r="C230" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B231" t="s">
         <v>519</v>
       </c>
+      <c r="C231" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B232" t="s">
         <v>520</v>
       </c>
+      <c r="C232" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B233" t="s">
         <v>521</v>
       </c>
+      <c r="C233" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B234" t="s">
         <v>522</v>
       </c>
+      <c r="C234" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B235" t="s">
         <v>523</v>
       </c>
+      <c r="C235" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B236" t="s">
         <v>524</v>
       </c>
+      <c r="C236" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B237" t="s">
         <v>525</v>
       </c>
+      <c r="C237" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B238" t="s">
         <v>526</v>
       </c>
+      <c r="C238" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B239" t="s">
         <v>527</v>
       </c>
+      <c r="C239" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B240" t="s">
         <v>528</v>
       </c>
+      <c r="C240" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B241" t="s">
         <v>529</v>
       </c>
+      <c r="C241" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B242" t="s">
         <v>530</v>
       </c>
+      <c r="C242" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B243" t="s">
         <v>531</v>
       </c>
+      <c r="C243" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B244" t="s">
         <v>532</v>
       </c>
+      <c r="C244" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B245" t="s">
         <v>533</v>
       </c>
+      <c r="C245" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B246" t="s">
         <v>534</v>
       </c>
+      <c r="C246" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B247" t="s">
         <v>535</v>
       </c>
+      <c r="C247" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B248" t="s">
         <v>536</v>
       </c>
+      <c r="C248" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B249" t="s">
         <v>537</v>
       </c>
+      <c r="C249" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B250" t="s">
         <v>538</v>
       </c>
+      <c r="C250" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B251" t="s">
         <v>539</v>
       </c>
+      <c r="C251" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B252" t="s">
         <v>540</v>
       </c>
+      <c r="C252" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B253" t="s">
         <v>541</v>
       </c>
+      <c r="C253" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B254" t="s">
         <v>542</v>
       </c>
+      <c r="C254" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B255" t="s">
         <v>543</v>
       </c>
+      <c r="C255" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B256" t="s">
         <v>544</v>
       </c>
+      <c r="C256" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B257" t="s">
         <v>545</v>
       </c>
+      <c r="C257" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B258" t="s">
         <v>546</v>
       </c>
+      <c r="C258" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B259" t="s">
         <v>547</v>
       </c>
+      <c r="C259" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B260" t="s">
         <v>548</v>
       </c>
+      <c r="C260" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B261" t="s">
         <v>549</v>
       </c>
+      <c r="C261" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B262" t="s">
         <v>550</v>
       </c>
+      <c r="C262" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B263" t="s">
         <v>551</v>
       </c>
+      <c r="C263" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B264" t="s">
         <v>552</v>
       </c>
+      <c r="C264" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B265" t="s">
         <v>553</v>
       </c>
+      <c r="C265" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B266" t="s">
         <v>554</v>
       </c>
+      <c r="C266" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B267" t="s">
         <v>555</v>
       </c>
+      <c r="C267" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B268" t="s">
         <v>556</v>
       </c>
+      <c r="C268" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B269" t="s">
         <v>557</v>
       </c>
+      <c r="C269" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B270" t="s">
         <v>558</v>
       </c>
+      <c r="C270" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B271" t="s">
         <v>559</v>
       </c>
+      <c r="C271" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B272" t="s">
         <v>560</v>
       </c>
+      <c r="C272" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B273" t="s">
         <v>561</v>
       </c>
+      <c r="C273" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B274" t="s">
         <v>562</v>
       </c>
+      <c r="C274" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B275" t="s">
         <v>563</v>
       </c>
+      <c r="C275" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B276" t="s">
         <v>564</v>
       </c>
+      <c r="C276" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B277" t="s">
         <v>565</v>
       </c>
+      <c r="C277" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B278" t="s">
         <v>566</v>
       </c>
+      <c r="C278" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B279" t="s">
         <v>567</v>
       </c>
+      <c r="C279" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B280" t="s">
         <v>568</v>
       </c>
+      <c r="C280" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B281" t="s">
         <v>569</v>
       </c>
+      <c r="C281" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B282" t="s">
         <v>570</v>
       </c>
+      <c r="C282" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B283" t="s">
         <v>571</v>
       </c>
+      <c r="C283" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B284" t="s">
         <v>572</v>
       </c>
+      <c r="C284" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B285" t="s">
         <v>573</v>
       </c>
+      <c r="C285" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B286" t="s">
         <v>574</v>
       </c>
+      <c r="C286" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B287" t="s">
         <v>575</v>
       </c>
+      <c r="C287" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B288" t="s">
         <v>576</v>
       </c>
+      <c r="C288" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B289" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="s">
-        <v>289</v>
-      </c>
-      <c r="B290" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="s">
-        <v>290</v>
-      </c>
-      <c r="B291" t="s">
-        <v>579</v>
+      <c r="C289" t="n">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
